--- a/biology/Botanique/Triticum_compactum/Triticum_compactum.xlsx
+++ b/biology/Botanique/Triticum_compactum/Triticum_compactum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Triticum compactum, le blé hérisson ou blé compact, est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire de l'Ancien Monde.
 C'est une espèce de blé adaptée à la culture en conditions sèches, qui est très proche du blé tendre (Triticum aestivum ), dont elle est souvent considérée comme une sous-espèce (Triticum aestivum subsp. compactum). Elle se différencie du blé tendre par son épi plus compact à cause des segments du rachis plus courts. Aux États-Unis d'Amérique, ce blé « compact » est très majoritairement cultivé dans des zones sèches du Pacifique Nord-Ouest.
-C'est une plante annuelle, aux tiges (chaumes) de 70 à 140 cm de long. L'inflorescence est un racème oblong, de 3 à 5 cm de long, composé d'épillets sessiles, comptant chacun deux fleurons fertiles, plus des fleurons réduits à l'apex. La lemme des fleurons fertiles se prolonge par une arête de 50 à 90 mm de long[2].
-Triticum compactum est une espèce hexaploïde avec 21 chromosomes (2n=42). Comme d'autres types de blés, elle a été sélectionnée pour sa teneur en protéines  plus faible. En raison du processus de sélection,  Triticum compactum  a moins de gènes codant les gluténines HMW[3] que d'autres espèces de blé. La farine produite à partir de Triticum compactum est de ce fait mieux adaptée pour la production de cookies[4].  Triticum compactum, comme d'autres espèces de blé tendre, n'a jamais été observée à l'état sauvage[5].
+C'est une plante annuelle, aux tiges (chaumes) de 70 à 140 cm de long. L'inflorescence est un racème oblong, de 3 à 5 cm de long, composé d'épillets sessiles, comptant chacun deux fleurons fertiles, plus des fleurons réduits à l'apex. La lemme des fleurons fertiles se prolonge par une arête de 50 à 90 mm de long.
+Triticum compactum est une espèce hexaploïde avec 21 chromosomes (2n=42). Comme d'autres types de blés, elle a été sélectionnée pour sa teneur en protéines  plus faible. En raison du processus de sélection,  Triticum compactum  a moins de gènes codant les gluténines HMW que d'autres espèces de blé. La farine produite à partir de Triticum compactum est de ce fait mieux adaptée pour la production de cookies.  Triticum compactum, comme d'autres espèces de blé tendre, n'a jamais été observée à l'état sauvage.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce blé très proche du blé tendre est apparu au Proche-Orient au néolithique puis a gagné l'Europe[5]. C'était le blé des cités lacustres[6] et des grains ont été retrouvés à l'oppidum de Bibracte[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce blé très proche du blé tendre est apparu au Proche-Orient au néolithique puis a gagné l'Europe. C'était le blé des cités lacustres et des grains ont été retrouvés à l'oppidum de Bibracte.
 </t>
         </is>
       </c>
@@ -545,11 +559,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'espèce Tricticum compactum a été décrite pour la première fois par le botaniste autrichien, Nicolaus Thomas Host, et publiée dans Icones et Descriptiones Graminum Austriacorum 4: 4, t. 7.  en 1809[8].
-Synonymes
-Selon Catalogue of Life                                   (17 septembre 2017)[9] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Tricticum compactum a été décrite pour la première fois par le botaniste autrichien, Nicolaus Thomas Host, et publiée dans Icones et Descriptiones Graminum Austriacorum 4: 4, t. 7.  en 1809.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Triticum_compactum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Triticum_compactum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (17 septembre 2017) :
 Hordeum bulbosum Sieber ex Kunth
 Hordeum sieberianum Besser
 Secale creticum L., nom. utique rej.
@@ -570,8 +621,43 @@
 Triticum vulgare var. icterinum Alef.
 Triticum vulgare var. sericeum Alef.
 Triticum vulgare var. splendens Alef.
-Sous-espèces et variétés
-Selon Tropicos                                           (17 septembre 2017)[10] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Triticum_compactum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Triticum_compactum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (17 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Triticum compactum subsp. irano-asiaticum Flaksb.
 variété Triticum compactum var. antiquorum Heer
 variété Triticum compactum var. bar-darai Nigmat.
@@ -580,33 +666,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Triticum_compactum</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Triticum_compactum</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Culture et utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le blé Hérisson a presque disparu du Proche-Orient et de l'Europe[6]. Il est cultivé dans la région Pacifique-Nord-Ouest des États-Unis[11], où il représente 5 à 10 % de la production de blés, pour des raisons de rusticité, de tolérance à l'aridité et de qualité biscuitière. Son faible taux de gluten y est apprécié pour la fabrication des cookies, des crackers et de certains gâteaux comme les gâteaux japonais (japanese sponge cakes) ; il entre principalement dans les mélanges de farines de blés tendres dits Western White[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le blé Hérisson a presque disparu du Proche-Orient et de l'Europe. Il est cultivé dans la région Pacifique-Nord-Ouest des États-Unis, où il représente 5 à 10 % de la production de blés, pour des raisons de rusticité, de tolérance à l'aridité et de qualité biscuitière. Son faible taux de gluten y est apprécié pour la fabrication des cookies, des crackers et de certains gâteaux comme les gâteaux japonais (japanese sponge cakes) ; il entre principalement dans les mélanges de farines de blés tendres dits Western White.
 </t>
         </is>
       </c>
